--- a/biology/Zoologie/Cephalotes_dorbignyanus/Cephalotes_dorbignyanus.xlsx
+++ b/biology/Zoologie/Cephalotes_dorbignyanus/Cephalotes_dorbignyanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes dorbignyanus est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes dorbignyanus est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nous ne possédons pas assez d'information sur sa distribution et son endémisme à l'heure actuelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nous ne possédons pas assez d'information sur sa distribution et son endémisme à l'heure actuelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste britannique Frederick Smith en 1853.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
